--- a/scopeCanvas/scopecanvasplantilla.xlsx
+++ b/scopeCanvas/scopecanvasplantilla.xlsx
@@ -77,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -148,11 +148,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +169,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,6 +180,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,11 +479,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -468,10 +496,10 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -480,14 +508,14 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -508,31 +536,140 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="34">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B1:E1"/>
